--- a/openpyxl-sandbox/asspy/template.xlsx
+++ b/openpyxl-sandbox/asspy/template.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet!$A$1:$C$2</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -227,10 +230,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,6 +263,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/openpyxl-sandbox/asspy/template.xlsx
+++ b/openpyxl-sandbox/asspy/template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,10 +34,13 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">aaa</t>
+    <t xml:space="preserve">bbb</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -79,6 +82,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,7 +198,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -207,12 +227,12 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -225,6 +245,556 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.188820807802926"/>
+          <c:y val="0.0576410484229232"/>
+          <c:w val="0.810991621858197"/>
+          <c:h val="0.867059084851177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>id</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>name</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="886142"/>
+        <c:axId val="16380413"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="886142"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16380413"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16380413"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886142"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1631160" y="165240"/>
+          <a:ext cx="928440" cy="641520"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>f</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>344880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2729880" y="52200"/>
+        <a:ext cx="5757480" cy="3241080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>379800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="502560" y="965520"/>
+          <a:ext cx="1069560" cy="832320"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46569"/>
+            <a:gd name="adj2" fmla="val -147143"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619280" y="1286640"/>
+          <a:ext cx="970200" cy="168840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>aaaa</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -233,7 +803,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:C2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -279,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
@@ -290,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -304,5 +874,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>